--- a/excel/数据收集.xlsx
+++ b/excel/数据收集.xlsx
@@ -16,71 +16,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>合同号</t>
+    <t>姓名</t>
   </si>
   <si>
-    <t>利率模式</t>
+    <t>性别</t>
   </si>
   <si>
-    <t>浮动周期</t>
+    <t>单位</t>
   </si>
   <si>
-    <t>对年对月周期</t>
+    <t>职业</t>
   </si>
   <si>
-    <t>合同原执行利率</t>
+    <t>赵四</t>
   </si>
   <si>
-    <t>合同LPR基准</t>
+    <t>男</t>
   </si>
   <si>
-    <t>合同BP点数</t>
+    <t>象牙山村</t>
   </si>
   <si>
-    <t>借据号</t>
+    <t>农民</t>
   </si>
   <si>
-    <t>借据原执行利率</t>
+    <t>刘大脑袋</t>
   </si>
   <si>
-    <t>借据LPR基准</t>
+    <t>象牙山庄</t>
   </si>
   <si>
-    <t>借据点数</t>
-  </si>
-  <si>
-    <t>0:固定利率模式, 
-1:浮动利率模式
-固定利率模式不填</t>
-  </si>
-  <si>
-    <t>0:每年1月1日 ,
-1:对年对月（借据放款日为10月1日的，下次调整日期也是10月1日）
-固定利率模式不填</t>
-  </si>
-  <si>
-    <t>可选1,2,3,4,5，
-例如每三年调整一次则送3</t>
-  </si>
-  <si>
-    <t>调整之前的执行利率</t>
-  </si>
-  <si>
-    <t>转换成LPR对应的LPR基准（按合同期限）</t>
-  </si>
-  <si>
-    <t>（调整之前的执行利率-转换成LPR对应的LPR基准）*10000</t>
-  </si>
-  <si>
-    <t>转换成LPR对应的LPR基准（按放款期限）</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123456789001  </t>
+    <t>职工</t>
   </si>
 </sst>
 </file>
@@ -90,10 +58,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,33 +71,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -137,70 +115,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,9 +130,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,24 +184,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,31 +223,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,151 +385,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,8 +420,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,11 +441,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,21 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -529,30 +514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,159 +534,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,28 +1022,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="15.1296296296296" customWidth="1"/>
-    <col min="6" max="6" width="13.8796296296296" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
-    <col min="11" max="11" width="22.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,90 +1049,32 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="86.4" spans="2:11">
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:11">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.049</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.048</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.049</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.048</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
